--- a/Aula_2/beneficios_funcionarios.xlsx
+++ b/Aula_2/beneficios_funcionarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omar.furtado\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omarfurtado/Desktop/Pandas_io/Aula_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A845BA-7AFD-4AF4-A03A-2C197379525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F792854-D899-F74F-9D88-B383492845B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{537340AC-7287-4C3A-8986-3769C95C443F}"/>
+    <workbookView xWindow="14180" yWindow="600" windowWidth="14620" windowHeight="15580" activeTab="1" xr2:uid="{537340AC-7287-4C3A-8986-3769C95C443F}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>matricula</t>
   </si>
@@ -112,16 +112,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -149,11 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,9 +485,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -513,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10045</v>
       </c>
@@ -530,7 +521,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -547,7 +538,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -564,7 +555,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -581,7 +572,7 @@
         <v>185.29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,15 +596,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962690ED-AEBB-4FEA-B5EA-C2A346B25D56}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A6" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -621,7 +612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -629,7 +620,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -637,28 +628,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
         <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>2.12</v>
       </c>
     </row>
   </sheetData>
